--- a/src/main/resources/static/image/3e973a6b-e502-4c27-9fc3-ac256b8802e0_주간업무보고계획.xlsx
+++ b/src/main/resources/static/image/3e973a6b-e502-4c27-9fc3-ac256b8802e0_주간업무보고계획.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\고가현\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\고가현\IdeaProjects\kahyun\src\main\resources\static\image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CB5811-D483-47AC-A9AA-62FFC4F60021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A043456F-57A6-4849-BB5F-778DDBE7EDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{F0FF667A-D355-48FC-BF83-AC7EA40EF1DF}"/>
+    <workbookView xWindow="3945" yWindow="2805" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{F0FF667A-D355-48FC-BF83-AC7EA40EF1DF}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>요구사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,14 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결제/충전 기능 (마이페이지 &gt; 보유 캐시 추가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정사항 (2024/05/20 - 05/26)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고가현_주간업무보고(24/05/06-24/06/12)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,31 +135,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>닉네임 변경 기능 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지 충전/사용 내역 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 컬럼명, mapper 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지 수정하기 버튼 클릭 시 본인인증 후 edit 페이지로 넘어가게 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 변경 페이지 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원상태 변경 기능 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 등록 게시글 관리 &gt; 삭제 추가</t>
+    <t>공지사항 게시판 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 외 게시판에 공지사항 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 등록, 수정, 삭제, 등급 별 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인, 회원정보 페이지 Controller, Service, mapper 분리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료게시판 댓글, 수정 기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원게시판 수정 기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 게시글 관리자 관리 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매, 환불 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 controller, service, mapper, ajax 이름 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정사항 (2024/06/03- 06/09)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -618,13 +622,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,39 +772,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,6 +779,66 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,12 +1193,12 @@
   <sheetData>
     <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="21" t="s">
         <v>21</v>
       </c>
@@ -1164,13 +1245,13 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="31">
+      <c r="B8" s="34">
         <v>4</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -1181,9 +1262,9 @@
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="15" t="s">
         <v>8</v>
       </c>
@@ -1192,9 +1273,9 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="15" t="s">
         <v>9</v>
       </c>
@@ -1203,9 +1284,9 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="15" t="s">
         <v>10</v>
       </c>
@@ -1214,10 +1295,10 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="31">
+      <c r="B12" s="34">
         <v>5</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="36" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1229,8 +1310,8 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1253,10 +1334,10 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="31">
+      <c r="B15" s="34">
         <v>7</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1268,8 +1349,8 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1323,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948227E7-86CA-4BEE-87E4-AD155B5E5AA0}">
-  <dimension ref="B1:D16"/>
+  <dimension ref="B1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1419,10 @@
   <sheetData>
     <row r="1" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="41"/>
+      <c r="B2" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="44"/>
       <c r="D2" s="23"/>
     </row>
     <row r="3" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1349,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="27">
         <v>0</v>
@@ -1360,96 +1441,112 @@
         <v>2</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="42">
+      <c r="B5" s="31">
         <v>3</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="52">
+        <v>4</v>
+      </c>
+      <c r="C6" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D6" s="53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="20">
+        <v>5</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="20">
-        <v>4</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="40" t="s">
+    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="23"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="25">
+      <c r="C10" s="44"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="45">
         <v>1</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="46"/>
+      <c r="C12" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="49"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="47"/>
+      <c r="C13" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="50"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="28">
+        <v>2</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="20">
+        <v>3</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="28">
-        <v>2</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="42">
-        <v>3</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20">
-        <v>4</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D11:D13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
